--- a/biology/Biochimie/Cérébroside/Cérébroside.xlsx
+++ b/biology/Biochimie/Cérébroside/Cérébroside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9broside</t>
+          <t>Cérébroside</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cérébrosides sont des lipides qui font partie des glycosphingolipides (appelés aussi simplement sphingolipides). Ils sont constitués d’un céramide lié par une liaison bêta-osidique à un ou plusieurs oses neutres[1]. Pour les oses chargés voir les gangliosides. L'acide gras est souvent à longue chaine, et en particulier l'acide nervonique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cérébrosides sont des lipides qui font partie des glycosphingolipides (appelés aussi simplement sphingolipides). Ils sont constitués d’un céramide lié par une liaison bêta-osidique à un ou plusieurs oses neutres. Pour les oses chargés voir les gangliosides. L'acide gras est souvent à longue chaine, et en particulier l'acide nervonique.
 Ils peuvent être α hydroxylés au niveau de l'acide gras.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9broside</t>
+          <t>Cérébroside</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Monohexosiques
-Ils sont dits monohexosiques lorsque le céramide est lié à un seul ose.
+          <t>Monohexosiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont dits monohexosiques lorsque le céramide est lié à un seul ose.
 Exemples : 
 céramide + glucose = glucosylcéramide
 céramide + galactose = galactosylcéramide
 Les glucosylcéramides ne sont jamais sulfatés, au contraire du galactosylcéramide.
-Polyhexosiques
-Ils sont dits polyhexosiques lorsque le céramide est lié à plusieurs oses.
-Exemple : 
-céramide + lactose = lactosylcéramide (lactose = glucose + galactose)</t>
+</t>
         </is>
       </c>
     </row>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9r%C3%A9broside</t>
+          <t>Cérébroside</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +562,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Différents types</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Polyhexosiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ils sont dits polyhexosiques lorsque le céramide est lié à plusieurs oses.
+Exemple : 
+céramide + lactose = lactosylcéramide (lactose = glucose + galactose)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cérébroside</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9r%C3%A9broside</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fonctions biologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Localisation
-Les cérébrosides sont des lipides membranaires, notamment présents dans le tissu nerveux et cérébral[1]. Il est le constituant majeur de la gaine de Myéline.
-Médical
-Un surplus de cérébrosides peut entrainer la cérébrosidose, comme dans la maladie de Gaucher[2]. La cérébrosidose est par conséquent une sphingolipidose (le cérébroside étant un sphingolipide), une des formes de lipidose[3].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cérébrosides sont des lipides membranaires, notamment présents dans le tissu nerveux et cérébral. Il est le constituant majeur de la gaine de Myéline.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cérébroside</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9r%C3%A9broside</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fonctions biologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Médical</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un surplus de cérébrosides peut entrainer la cérébrosidose, comme dans la maladie de Gaucher. La cérébrosidose est par conséquent une sphingolipidose (le cérébroside étant un sphingolipide), une des formes de lipidose.
 </t>
         </is>
       </c>
